--- a/Laporan Limbah/Laporan Limbah Kabel.xlsx
+++ b/Laporan Limbah/Laporan Limbah Kabel.xlsx
@@ -21,27 +21,12 @@
     <t>TYPE</t>
   </si>
   <si>
-    <t>WARNA</t>
-  </si>
-  <si>
     <t>X88A/AY01</t>
   </si>
   <si>
     <t>MP28#+24#</t>
   </si>
   <si>
-    <t>PUTIH</t>
-  </si>
-  <si>
-    <t>MERAH</t>
-  </si>
-  <si>
-    <t>HITAM</t>
-  </si>
-  <si>
-    <t>HIJAU</t>
-  </si>
-  <si>
     <t>MP28#+28#</t>
   </si>
   <si>
@@ -49,6 +34,21 @@
   </si>
   <si>
     <t>BERAT      (g/m)</t>
+  </si>
+  <si>
+    <t>SPESIFIKASI</t>
+  </si>
+  <si>
+    <t>CORE PUTIH</t>
+  </si>
+  <si>
+    <t>CORE MERAH</t>
+  </si>
+  <si>
+    <t>CORE HITAM</t>
+  </si>
+  <si>
+    <t>CORE HIJAU</t>
   </si>
 </sst>
 </file>
@@ -119,10 +119,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,43 +428,43 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>1.3</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>1.1000000000000001</v>
@@ -490,7 +490,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>1.1000000000000001</v>
@@ -502,7 +502,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>0.85</v>
@@ -514,7 +514,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>0.85</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>0.85</v>
@@ -540,7 +540,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>0.85</v>
@@ -552,7 +552,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>0.85</v>
@@ -564,7 +564,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>0.85</v>

--- a/Laporan Limbah/Laporan Limbah Kabel.xlsx
+++ b/Laporan Limbah/Laporan Limbah Kabel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>TYPE</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>CORE HIJAU</t>
+  </si>
+  <si>
+    <t>KABEL</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -109,11 +112,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,6 +148,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,85 +503,83 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.9152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>2.9152</v>
+        <v>2.9077000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>0.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>1.2238</v>
+        <v>2.9152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>0.85</v>
       </c>
       <c r="D7" s="1">
-        <v>1.2244999999999999</v>
+        <v>1.2238</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>0.85</v>
       </c>
       <c r="D8" s="1">
-        <v>2.9077000000000002</v>
+        <v>1.2244999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0.85</v>
+        <v>4.5</v>
       </c>
       <c r="D9" s="1">
-        <v>2.9077000000000002</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <v>0.85</v>
@@ -564,13 +591,49 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>0.85</v>
       </c>
       <c r="D11" s="1">
+        <v>1.2238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.2238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D13" s="1">
         <v>1.2244999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>19.136800000000001</v>
       </c>
     </row>
   </sheetData>
